--- a/teaching/traditional_assets/database/data/spain/spain_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/spain/spain_investments_asset_management.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -590,104 +590,122 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D2">
+        <v>0.462</v>
+      </c>
+      <c r="F2">
+        <v>-0.061</v>
+      </c>
       <c r="G2">
-        <v>0.5294130774380718</v>
+        <v>0.6423727898987356</v>
       </c>
       <c r="H2">
-        <v>0.529346128096407</v>
+        <v>0.6423368167347159</v>
       </c>
       <c r="I2">
-        <v>0.4168712340995313</v>
+        <v>0.4321456193679515</v>
       </c>
       <c r="J2">
-        <v>0.4125395474077563</v>
+        <v>0.3446428417816458</v>
       </c>
       <c r="K2">
-        <v>6.5</v>
+        <v>2.083</v>
       </c>
       <c r="L2">
-        <v>0.1450569069404151</v>
+        <v>0.03746605032645646</v>
       </c>
       <c r="M2">
-        <v>21.76</v>
+        <v>28.419</v>
       </c>
       <c r="N2">
-        <v>0.04191063174114022</v>
+        <v>0.04982293127629734</v>
       </c>
       <c r="O2">
-        <v>3.347692307692308</v>
+        <v>13.64330292846856</v>
       </c>
       <c r="P2">
-        <v>10.86</v>
+        <v>2.37</v>
       </c>
       <c r="Q2">
-        <v>0.02091679506933745</v>
+        <v>0.004154978962131838</v>
       </c>
       <c r="R2">
-        <v>1.670769230769231</v>
+        <v>1.13778204512722</v>
       </c>
       <c r="S2">
-        <v>10.9</v>
+        <v>26.049</v>
       </c>
       <c r="T2">
-        <v>0.5009191176470588</v>
+        <v>0.9166050881452549</v>
       </c>
       <c r="U2">
-        <v>33.12</v>
+        <v>62.29799999999999</v>
       </c>
       <c r="V2">
-        <v>0.06379044684129431</v>
+        <v>0.1092180925666199</v>
+      </c>
+      <c r="W2">
+        <v>0.01040268456375839</v>
       </c>
       <c r="X2">
-        <v>0.07720775032647829</v>
+        <v>0.05326735241350043</v>
+      </c>
+      <c r="Y2">
+        <v>-0.04286466784974204</v>
       </c>
       <c r="Z2">
-        <v>0.2356312772782248</v>
+        <v>0.07279476268412438</v>
+      </c>
+      <c r="AA2">
+        <v>0.01472754050073638</v>
       </c>
       <c r="AB2">
-        <v>0.05754817943424968</v>
+        <v>0.04597711551672241</v>
+      </c>
+      <c r="AC2">
+        <v>-0.03124957501598604</v>
       </c>
       <c r="AD2">
-        <v>384.2</v>
+        <v>424.209</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>384.2</v>
+        <v>424.209</v>
       </c>
       <c r="AG2">
-        <v>351.08</v>
+        <v>361.911</v>
       </c>
       <c r="AH2">
-        <v>0.425282266991366</v>
+        <v>0.4265083062791509</v>
       </c>
       <c r="AI2">
-        <v>0.4979909267660402</v>
+        <v>0.4506586041353052</v>
       </c>
       <c r="AJ2">
-        <v>0.4034103966539505</v>
+        <v>0.3881869891055668</v>
       </c>
       <c r="AK2">
-        <v>0.4754733335139088</v>
+        <v>0.4117252230063105</v>
       </c>
       <c r="AL2">
-        <v>12.44</v>
+        <v>12.637</v>
       </c>
       <c r="AM2">
-        <v>12.435</v>
+        <v>12.602</v>
       </c>
       <c r="AN2">
-        <v>12.8237650200267</v>
+        <v>11.12183419852131</v>
       </c>
       <c r="AO2">
-        <v>1.501607717041801</v>
+        <v>1.901242383477091</v>
       </c>
       <c r="AP2">
-        <v>11.71829105473965</v>
+        <v>9.488516595878558</v>
       </c>
       <c r="AQ2">
-        <v>1.502211499798955</v>
+        <v>1.906522774162831</v>
       </c>
     </row>
     <row r="3">
@@ -698,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Atom Hoteles SOCIMI, S.A. (BME:YATO)</t>
+          <t>Quid Pro Quo Alquiler Seguro SOCIMI, S.A (BME:YQPQ)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -707,100 +725,115 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.5243553008595989</v>
+        <v>0.2032520325203252</v>
       </c>
       <c r="H3">
-        <v>0.5243553008595989</v>
+        <v>0.2032520325203252</v>
       </c>
       <c r="I3">
-        <v>0.4383954154727794</v>
+        <v>0.3018292682926829</v>
       </c>
       <c r="J3">
-        <v>0.4292847288549294</v>
+        <v>0.3018292682926829</v>
       </c>
       <c r="K3">
-        <v>4.51</v>
+        <v>0.237</v>
       </c>
       <c r="L3">
-        <v>0.1292263610315186</v>
+        <v>0.2408536585365854</v>
       </c>
       <c r="M3">
-        <v>8.460000000000001</v>
+        <v>0.359</v>
       </c>
       <c r="N3">
-        <v>0.02147753236862148</v>
+        <v>0.02826771653543307</v>
       </c>
       <c r="O3">
-        <v>1.875831485587584</v>
+        <v>1.514767932489451</v>
       </c>
       <c r="P3">
-        <v>8.460000000000001</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.02147753236862148</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>1.875831485587584</v>
+        <v>-0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.359</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>23.6</v>
+        <v>0.575</v>
       </c>
       <c r="V3">
-        <v>0.05991368367605992</v>
+        <v>0.0452755905511811</v>
+      </c>
+      <c r="W3">
+        <v>0.02559395248380129</v>
       </c>
       <c r="X3">
-        <v>0.07693178190427291</v>
+        <v>0.05102906754233186</v>
+      </c>
+      <c r="Y3">
+        <v>-0.02543511505853056</v>
+      </c>
+      <c r="Z3">
+        <v>0.09352723125178215</v>
+      </c>
+      <c r="AA3">
+        <v>0.02822925577416596</v>
       </c>
       <c r="AB3">
-        <v>0.0575395423099675</v>
+        <v>0.04530160893386572</v>
+      </c>
+      <c r="AC3">
+        <v>-0.01707235315969977</v>
       </c>
       <c r="AD3">
-        <v>289.6</v>
+        <v>3.58</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>289.6</v>
+        <v>3.58</v>
       </c>
       <c r="AG3">
-        <v>266</v>
+        <v>3.005</v>
       </c>
       <c r="AH3">
-        <v>0.4237015362106804</v>
+        <v>0.2199017199017199</v>
       </c>
       <c r="AI3">
-        <v>0.5072692240322297</v>
+        <v>0.2389853137516689</v>
       </c>
       <c r="AJ3">
-        <v>0.4030913774814366</v>
+        <v>0.1913403374721427</v>
       </c>
       <c r="AK3">
-        <v>0.4860222912479445</v>
+        <v>0.2086081221797987</v>
       </c>
       <c r="AL3">
-        <v>10.5</v>
+        <v>0.06</v>
       </c>
       <c r="AM3">
-        <v>10.495</v>
+        <v>0.06</v>
       </c>
       <c r="AN3">
-        <v>12.42918454935622</v>
+        <v>10.52941176470588</v>
       </c>
       <c r="AO3">
-        <v>1.457142857142857</v>
+        <v>4.95</v>
       </c>
       <c r="AP3">
-        <v>11.41630901287554</v>
+        <v>8.838235294117647</v>
       </c>
       <c r="AQ3">
-        <v>1.457837065269176</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="4">
@@ -811,7 +844,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Elaia Investment Spain Socimi, S.A. (BME:YEIS)</t>
+          <t>Atom Hoteles SOCIMI, S.A. (BME:YATO)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -820,115 +853,499 @@
         </is>
       </c>
       <c r="G4">
-        <v>0.5472250252270434</v>
+        <v>0.6794258373205742</v>
       </c>
       <c r="H4">
-        <v>0.5469223007063572</v>
+        <v>0.6794258373205742</v>
       </c>
       <c r="I4">
-        <v>0.3410696266397578</v>
+        <v>0.5023923444976077</v>
       </c>
       <c r="J4">
-        <v>0.3410696266397578</v>
+        <v>0.2511961722488039</v>
       </c>
       <c r="K4">
-        <v>1.99</v>
+        <v>-0.232</v>
       </c>
       <c r="L4">
-        <v>0.2008072653884965</v>
+        <v>-0.005550239234449761</v>
       </c>
       <c r="M4">
-        <v>13.3</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.1061452513966481</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>6.683417085427136</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>2.4</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.01915403032721468</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>1.206030150753769</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>10.9</v>
-      </c>
-      <c r="T4">
-        <v>0.8195488721804511</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>9.52</v>
+        <v>58.3</v>
       </c>
       <c r="V4">
-        <v>0.07597765363128492</v>
+        <v>0.1475949367088608</v>
       </c>
       <c r="W4">
-        <v>0.01656952539550375</v>
+        <v>-0.0008372428726091663</v>
       </c>
       <c r="X4">
-        <v>0.07748371874868368</v>
+        <v>0.06830595519029216</v>
       </c>
       <c r="Y4">
-        <v>-0.06091419335317994</v>
+        <v>-0.06914319806290133</v>
       </c>
       <c r="Z4">
-        <v>0.05211126886470001</v>
+        <v>0.07696556803535259</v>
       </c>
       <c r="AA4">
-        <v>0.01777357101540727</v>
+        <v>0.01933345608543546</v>
       </c>
       <c r="AB4">
-        <v>0.05755681655853186</v>
+        <v>0.04719294955510815</v>
       </c>
       <c r="AC4">
-        <v>-0.0397832455431246</v>
+        <v>-0.02785949346967269</v>
       </c>
       <c r="AD4">
-        <v>94.59999999999999</v>
+        <v>375.5</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>94.59999999999999</v>
+        <v>375.5</v>
       </c>
       <c r="AG4">
-        <v>85.08</v>
+        <v>317.2</v>
       </c>
       <c r="AH4">
-        <v>0.4301955434288313</v>
+        <v>0.4873458792991564</v>
       </c>
       <c r="AI4">
-        <v>0.4715852442671984</v>
+        <v>0.5136096293256737</v>
       </c>
       <c r="AJ4">
-        <v>0.404411065690655</v>
+        <v>0.4453805110923897</v>
       </c>
       <c r="AK4">
-        <v>0.4452585304584468</v>
+        <v>0.4714625445897741</v>
       </c>
       <c r="AL4">
-        <v>1.94</v>
+        <v>9.92</v>
       </c>
       <c r="AM4">
-        <v>1.94</v>
+        <v>9.904999999999999</v>
       </c>
       <c r="AN4">
-        <v>14.2042042042042</v>
+        <v>12.07395498392283</v>
       </c>
       <c r="AO4">
-        <v>1.742268041237113</v>
+        <v>2.116935483870968</v>
       </c>
       <c r="AP4">
-        <v>12.77477477477477</v>
+        <v>10.19935691318328</v>
       </c>
       <c r="AQ4">
-        <v>1.742268041237113</v>
+        <v>2.120141342756184</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Student Properties Spain SOCIMI, S.A. (BME:YSPS)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Investments &amp; Asset Management</t>
+        </is>
+      </c>
+      <c r="G5">
+        <v>1.058581706063721</v>
+      </c>
+      <c r="H5">
+        <v>1.058581706063721</v>
+      </c>
+      <c r="I5">
+        <v>0.3083247687564235</v>
+      </c>
+      <c r="J5">
+        <v>0.3083247687564235</v>
+      </c>
+      <c r="K5">
+        <v>0.107</v>
+      </c>
+      <c r="L5">
+        <v>0.1099691675231244</v>
+      </c>
+      <c r="M5">
+        <v>-0</v>
+      </c>
+      <c r="N5">
+        <v>-0</v>
+      </c>
+      <c r="O5">
+        <v>-0</v>
+      </c>
+      <c r="P5">
+        <v>-0</v>
+      </c>
+      <c r="Q5">
+        <v>-0</v>
+      </c>
+      <c r="R5">
+        <v>-0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>1.67</v>
+      </c>
+      <c r="V5">
+        <v>0.08978494623655912</v>
+      </c>
+      <c r="W5">
+        <v>0.008916666666666666</v>
+      </c>
+      <c r="X5">
+        <v>0.05564996670241411</v>
+      </c>
+      <c r="Y5">
+        <v>-0.04673330003574744</v>
+      </c>
+      <c r="Z5">
+        <v>0.04776632302405498</v>
+      </c>
+      <c r="AA5">
+        <v>0.01472754050073638</v>
+      </c>
+      <c r="AB5">
+        <v>0.04597711551672241</v>
+      </c>
+      <c r="AC5">
+        <v>-0.03124957501598604</v>
+      </c>
+      <c r="AD5">
+        <v>8.57</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>8.57</v>
+      </c>
+      <c r="AG5">
+        <v>6.9</v>
+      </c>
+      <c r="AH5">
+        <v>0.3154214206845786</v>
+      </c>
+      <c r="AI5">
+        <v>0.416626154594069</v>
+      </c>
+      <c r="AJ5">
+        <v>0.2705882352941177</v>
+      </c>
+      <c r="AK5">
+        <v>0.3650793650793651</v>
+      </c>
+      <c r="AL5">
+        <v>0.214</v>
+      </c>
+      <c r="AM5">
+        <v>0.194</v>
+      </c>
+      <c r="AN5">
+        <v>13.1441717791411</v>
+      </c>
+      <c r="AO5">
+        <v>1.401869158878505</v>
+      </c>
+      <c r="AP5">
+        <v>10.58282208588957</v>
+      </c>
+      <c r="AQ5">
+        <v>1.546391752577319</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Elaia Investment Spain Socimi, S.A. (BME:YEIS)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Investments &amp; Asset Management</t>
+        </is>
+      </c>
+      <c r="G6">
+        <v>0.5884313725490197</v>
+      </c>
+      <c r="H6">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="I6">
+        <v>0.2382352941176471</v>
+      </c>
+      <c r="J6">
+        <v>0.1191176470588236</v>
+      </c>
+      <c r="K6">
+        <v>1.24</v>
+      </c>
+      <c r="L6">
+        <v>0.1215686274509804</v>
+      </c>
+      <c r="M6">
+        <v>26.57</v>
+      </c>
+      <c r="N6">
+        <v>0.269746192893401</v>
+      </c>
+      <c r="O6">
+        <v>21.42741935483871</v>
+      </c>
+      <c r="P6">
+        <v>2.37</v>
+      </c>
+      <c r="Q6">
+        <v>0.02406091370558376</v>
+      </c>
+      <c r="R6">
+        <v>1.911290322580645</v>
+      </c>
+      <c r="S6">
+        <v>24.2</v>
+      </c>
+      <c r="T6">
+        <v>0.9108016560030109</v>
+      </c>
+      <c r="U6">
+        <v>1.51</v>
+      </c>
+      <c r="V6">
+        <v>0.01532994923857868</v>
+      </c>
+      <c r="W6">
+        <v>0.01040268456375839</v>
+      </c>
+      <c r="X6">
+        <v>0.05326735241350043</v>
+      </c>
+      <c r="Y6">
+        <v>-0.04286466784974204</v>
+      </c>
+      <c r="Z6">
+        <v>0.05515600497485535</v>
+      </c>
+      <c r="AA6">
+        <v>0.006570053533769536</v>
+      </c>
+      <c r="AB6">
+        <v>0.0478280551486897</v>
+      </c>
+      <c r="AC6">
+        <v>-0.04125800161492017</v>
+      </c>
+      <c r="AD6">
+        <v>36.3</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>36.3</v>
+      </c>
+      <c r="AG6">
+        <v>34.79</v>
+      </c>
+      <c r="AH6">
+        <v>0.2692878338278931</v>
+      </c>
+      <c r="AI6">
+        <v>0.2842599843382929</v>
+      </c>
+      <c r="AJ6">
+        <v>0.2610098281941631</v>
+      </c>
+      <c r="AK6">
+        <v>0.275695379982566</v>
+      </c>
+      <c r="AL6">
+        <v>2.37</v>
+      </c>
+      <c r="AM6">
+        <v>2.37</v>
+      </c>
+      <c r="AN6">
+        <v>6.05</v>
+      </c>
+      <c r="AO6">
+        <v>1.025316455696202</v>
+      </c>
+      <c r="AP6">
+        <v>5.798333333333333</v>
+      </c>
+      <c r="AQ6">
+        <v>1.025316455696202</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Iffe Futura, S.A. (BME:IFF)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Investments &amp; Asset Management</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>0.462</v>
+      </c>
+      <c r="F7">
+        <v>-0.061</v>
+      </c>
+      <c r="G7">
+        <v>0.05</v>
+      </c>
+      <c r="H7">
+        <v>0.05</v>
+      </c>
+      <c r="I7">
+        <v>-0.0006097560975609756</v>
+      </c>
+      <c r="J7">
+        <v>-0.0006021814876533858</v>
+      </c>
+      <c r="K7">
+        <v>0.731</v>
+      </c>
+      <c r="L7">
+        <v>0.4457317073170732</v>
+      </c>
+      <c r="M7">
+        <v>1.49</v>
+      </c>
+      <c r="N7">
+        <v>0.03267543859649123</v>
+      </c>
+      <c r="O7">
+        <v>2.038303693570451</v>
+      </c>
+      <c r="P7">
+        <v>-0</v>
+      </c>
+      <c r="Q7">
+        <v>-0</v>
+      </c>
+      <c r="R7">
+        <v>-0</v>
+      </c>
+      <c r="S7">
+        <v>1.49</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>0.243</v>
+      </c>
+      <c r="V7">
+        <v>0.005328947368421052</v>
+      </c>
+      <c r="W7">
+        <v>0.01748803827751196</v>
+      </c>
+      <c r="X7">
+        <v>0.04389322158390131</v>
+      </c>
+      <c r="Y7">
+        <v>-0.02640518330638935</v>
+      </c>
+      <c r="Z7">
+        <v>0.3396148270863537</v>
+      </c>
+      <c r="AA7">
+        <v>-0.0002045097618040079</v>
+      </c>
+      <c r="AB7">
+        <v>0.04383208646873476</v>
+      </c>
+      <c r="AC7">
+        <v>-0.04403659623053877</v>
+      </c>
+      <c r="AD7">
+        <v>0.259</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0.259</v>
+      </c>
+      <c r="AG7">
+        <v>0.01600000000000001</v>
+      </c>
+      <c r="AH7">
+        <v>0.005647746352951438</v>
+      </c>
+      <c r="AI7">
+        <v>0.005515449647564897</v>
+      </c>
+      <c r="AJ7">
+        <v>0.0003507541213609263</v>
+      </c>
+      <c r="AK7">
+        <v>0.0003424950766332737</v>
+      </c>
+      <c r="AL7">
+        <v>0.073</v>
+      </c>
+      <c r="AM7">
+        <v>0.073</v>
+      </c>
+      <c r="AN7">
+        <v>5.18</v>
+      </c>
+      <c r="AO7">
+        <v>-0.0136986301369863</v>
+      </c>
+      <c r="AP7">
+        <v>0.3200000000000003</v>
+      </c>
+      <c r="AQ7">
+        <v>-0.0136986301369863</v>
       </c>
     </row>
   </sheetData>
